--- a/src/cms/files/MOCK_DATA_200_4.xlsx
+++ b/src/cms/files/MOCK_DATA_200_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21960" windowHeight="13500"/>
+    <workbookView windowWidth="21675" windowHeight="14790"/>
   </bookViews>
   <sheets>
     <sheet name="MOCK_DATA (15)" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="407">
   <si>
     <t>ktp</t>
   </si>
@@ -1242,10 +1242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1265,7 +1265,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1279,23 +1302,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1318,30 +1326,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1356,23 +1358,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1393,10 +1393,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1409,7 +1409,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1421,49 +1535,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,103 +1571,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1587,12 +1593,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1603,41 +1603,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1666,6 +1651,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1673,6 +1673,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1685,162 +1700,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2173,13 +2173,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F2" sqref="F$1:F$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="F200" sqref="F200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="14.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.64" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -5595,11 +5595,6 @@
         <v>9815419203</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="202" spans="5:5">
-      <c r="E202" t="s">
         <v>10</v>
       </c>
     </row>
